--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2142321.754727321</v>
+        <v>2257755.845468774</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9494965.654370345</v>
+        <v>9494965.654370343</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>88.0908181594307</v>
+        <v>88.09081815943041</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>85.71605677037205</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>137.4372364365536</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>188.8837547751688</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>188.8837547751688</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>188.8837547751688</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.09313313066311</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760006</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804615</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>76.48920167725947</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>143.5928083587459</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246127</v>
       </c>
       <c r="I6" t="n">
-        <v>4.85819701380735</v>
+        <v>43.32085084937498</v>
       </c>
       <c r="J6" t="n">
-        <v>15.14162995515568</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.27675899167157</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>188.8837547751688</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>223.5625731412817</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>72.19161405351177</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53.45534151883039</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>114.5588353634913</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>179.9948012226679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6989975707012</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>11.71329227454224</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>82.86593624627328</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>144.4286493356916</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>219.8402248542621</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6866318399304</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>180.1003471321689</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>143.2091541404073</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>64.36993339924405</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695513</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>148.1185786361468</v>
+        <v>100.3801551430683</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>141.4641157700688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>135.4684761590169</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>1.594095449515125</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>133.1470961459096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>266.0941464746417</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>208.264055005867</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>98.72106119200248</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>22.65115569188744</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>22.6126310577748</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097404</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097404</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="D2" t="n">
-        <v>393.841617006275</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="E2" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097404</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097404</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097404</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097404</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097404</v>
+        <v>672.2420264262241</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400.9361470843146</v>
+        <v>348.6925312598881</v>
       </c>
       <c r="C3" t="n">
-        <v>400.9361470843146</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D3" t="n">
-        <v>400.9361470843146</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>400.9361470843146</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>254.4015891111996</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264277</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264277</v>
+        <v>487.5180226099422</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264277</v>
+        <v>487.5180226099422</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264277</v>
+        <v>487.5180226099422</v>
       </c>
       <c r="W3" t="n">
-        <v>590.3559321007994</v>
+        <v>487.5180226099422</v>
       </c>
       <c r="X3" t="n">
-        <v>400.9361470843146</v>
+        <v>487.5180226099422</v>
       </c>
       <c r="Y3" t="n">
-        <v>400.9361470843146</v>
+        <v>348.6925312598881</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>600.7111018528917</v>
+        <v>955.7558524817689</v>
       </c>
       <c r="C5" t="n">
-        <v>600.7111018528917</v>
+        <v>955.7558524817689</v>
       </c>
       <c r="D5" t="n">
-        <v>409.9194303628223</v>
+        <v>955.7558524817689</v>
       </c>
       <c r="E5" t="n">
-        <v>219.1277588727528</v>
+        <v>955.7558524817689</v>
       </c>
       <c r="F5" t="n">
-        <v>28.33608738268331</v>
+        <v>544.7699476921614</v>
       </c>
       <c r="G5" t="n">
-        <v>15.1107003820135</v>
+        <v>128.3539025062529</v>
       </c>
       <c r="H5" t="n">
-        <v>15.1107003820135</v>
+        <v>128.3539025062529</v>
       </c>
       <c r="I5" t="n">
-        <v>15.1107003820135</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590413</v>
+        <v>111.6705539017229</v>
       </c>
       <c r="K5" t="n">
-        <v>81.90760247543415</v>
+        <v>277.9807166747</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186781</v>
+        <v>521.20494160308</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7686271398386</v>
+        <v>823.5081935709231</v>
       </c>
       <c r="N5" t="n">
-        <v>512.9722761681815</v>
+        <v>1135.316836582758</v>
       </c>
       <c r="O5" t="n">
-        <v>653.7455927875674</v>
+        <v>1416.413635079248</v>
       </c>
       <c r="P5" t="n">
-        <v>739.3913607574716</v>
+        <v>1621.822248332768</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006752</v>
+        <v>1727.902815837895</v>
       </c>
       <c r="R5" t="n">
-        <v>677.9729217289114</v>
+        <v>1727.902815837895</v>
       </c>
       <c r="S5" t="n">
-        <v>677.9729217289114</v>
+        <v>1727.902815837895</v>
       </c>
       <c r="T5" t="n">
-        <v>600.7111018528917</v>
+        <v>1727.902815837895</v>
       </c>
       <c r="U5" t="n">
-        <v>600.7111018528917</v>
+        <v>1474.264851509259</v>
       </c>
       <c r="V5" t="n">
-        <v>600.7111018528917</v>
+        <v>1474.264851509259</v>
       </c>
       <c r="W5" t="n">
-        <v>600.7111018528917</v>
+        <v>1474.264851509259</v>
       </c>
       <c r="X5" t="n">
-        <v>600.7111018528917</v>
+        <v>1100.799093248179</v>
       </c>
       <c r="Y5" t="n">
-        <v>600.7111018528917</v>
+        <v>955.7558524817689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>490.0189684450303</v>
+        <v>636.2307439652129</v>
       </c>
       <c r="C6" t="n">
-        <v>490.0189684450303</v>
+        <v>461.7777146840859</v>
       </c>
       <c r="D6" t="n">
-        <v>341.084558783779</v>
+        <v>312.8433050228347</v>
       </c>
       <c r="E6" t="n">
-        <v>181.8471037783235</v>
+        <v>312.8433050228347</v>
       </c>
       <c r="F6" t="n">
-        <v>35.31254580520849</v>
+        <v>312.8433050228347</v>
       </c>
       <c r="G6" t="n">
-        <v>35.31254580520849</v>
+        <v>175.7613181367945</v>
       </c>
       <c r="H6" t="n">
-        <v>35.31254580520849</v>
+        <v>78.31649151814676</v>
       </c>
       <c r="I6" t="n">
-        <v>30.40527609429197</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="J6" t="n">
-        <v>15.1107003820135</v>
+        <v>61.66788464787601</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236340821</v>
+        <v>186.1577239806078</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208072</v>
+        <v>399.8722171190005</v>
       </c>
       <c r="M6" t="n">
-        <v>340.4511451914165</v>
+        <v>668.623818522354</v>
       </c>
       <c r="N6" t="n">
-        <v>514.8296233548592</v>
+        <v>958.8971200352531</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747535</v>
+        <v>1202.220686228325</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165409</v>
+        <v>1378.176233639516</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994144</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="R6" t="n">
-        <v>680.8106399350997</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="S6" t="n">
-        <v>680.8106399350997</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="T6" t="n">
-        <v>490.0189684450303</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="U6" t="n">
-        <v>490.0189684450303</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="V6" t="n">
-        <v>490.0189684450303</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="W6" t="n">
-        <v>490.0189684450303</v>
+        <v>1220.057879955768</v>
       </c>
       <c r="X6" t="n">
-        <v>490.0189684450303</v>
+        <v>1012.206379750235</v>
       </c>
       <c r="Y6" t="n">
-        <v>490.0189684450303</v>
+        <v>804.446080985281</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="C7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="D7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="E7" t="n">
-        <v>15.1107003820135</v>
+        <v>296.8982273095297</v>
       </c>
       <c r="F7" t="n">
-        <v>15.1107003820135</v>
+        <v>150.0082798116194</v>
       </c>
       <c r="G7" t="n">
-        <v>15.1107003820135</v>
+        <v>150.0082798116194</v>
       </c>
       <c r="H7" t="n">
-        <v>15.1107003820135</v>
+        <v>150.0082798116194</v>
       </c>
       <c r="I7" t="n">
-        <v>15.1107003820135</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="J7" t="n">
-        <v>15.1107003820135</v>
+        <v>34.55805631675789</v>
       </c>
       <c r="K7" t="n">
-        <v>15.1107003820135</v>
+        <v>64.24066662574759</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45863662426218</v>
+        <v>132.1299861584129</v>
       </c>
       <c r="M7" t="n">
-        <v>43.73608709747787</v>
+        <v>206.9680378347992</v>
       </c>
       <c r="N7" t="n">
-        <v>67.4840220862792</v>
+        <v>287.8841338195393</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484547855</v>
+        <v>342.310156193475</v>
       </c>
       <c r="P7" t="n">
-        <v>69.10599484547855</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.10599484547855</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="R7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="S7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="T7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="U7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="V7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="W7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="X7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.1107003820135</v>
+        <v>369.8190495858042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1065.055279897601</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1065.055279897601</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1065.055279897601</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1451.655119961722</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>391.3643484718303</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>761.4468670051692</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>553.6865682402154</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.7860413842973</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="C10" t="n">
-        <v>325.7860413842973</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="D10" t="n">
-        <v>175.6694019719615</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="E10" t="n">
-        <v>175.6694019719615</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="F10" t="n">
-        <v>175.6694019719615</v>
+        <v>145.4098486446714</v>
       </c>
       <c r="G10" t="n">
-        <v>175.6694019719615</v>
+        <v>145.4098486446714</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>145.4098486446714</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>729.201121645011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>507.434506214537</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>507.434506214537</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>507.434506214537</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>507.434506214537</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>507.434506214537</v>
+        <v>292.2997961425817</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.434506214537</v>
+        <v>292.2997961425817</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5078,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,16 +5129,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.400247324385</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.715759118498</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.298589081537</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.30903818352</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,16 +5360,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5543,19 +5545,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.2213777565</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U19" t="n">
-        <v>2052.406834234631</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1797.722346028744</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.305175991783</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5844,13 +5846,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111735</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6017,22 +6019,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.580456911439</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835321</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711966</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888037</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2297.348357685164</v>
+        <v>2345.568987476151</v>
       </c>
       <c r="T25" t="n">
-        <v>2077.746892708105</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U25" t="n">
-        <v>1788.671666052303</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V25" t="n">
-        <v>1533.987177846416</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.570007809456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>1016.580456911439</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.580456911439</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.6442739835331</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6443,52 +6445,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.8178837532263</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>2878.204656667458</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>2878.204656667458</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>2730.291563085065</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2245.425363523663</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.350136867861</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.665648661974</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.248478625013</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.258927726996</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.466348583466</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.9487421954783</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675714</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6868,40 +6870,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235172</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258113</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602311</v>
+        <v>1775.724818122104</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396424</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W34" t="n">
-        <v>1290.379337067265</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X34" t="n">
-        <v>1062.389786169248</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y34" t="n">
-        <v>841.597207025718</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7017,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>430.7826650753331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7630,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7646,13 +7648,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7740,7 +7742,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122182</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>2.005313310877568</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>66.34424953498208</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>68.49784254931379</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.9259388694757149</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>142.9753202488368</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856538</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012153</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>32.90770736549766</v>
+        <v>80.6461308585763</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.36786441186848</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>10.96548648755231</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>143.8269525734161</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>84.25835418137865</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>20.09032791460243</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>78.25894333072404</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>68.52575990662535</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>123.7828069546817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>123.7828069546817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
@@ -26326,34 +26328,34 @@
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218515928</v>
+        <v>270592.3620253156</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385767</v>
+        <v>115410.0540231902</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>349.548881154173</v>
+        <v>62913.63765882046</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.4473694195</v>
+        <v>27875.25362197425</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.7270444462</v>
+        <v>206604.4229263454</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,28 +26432,28 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="H4" t="n">
-        <v>14826.69604186741</v>
-      </c>
       <c r="I4" t="n">
-        <v>14826.69604186754</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186749</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.86446622551</v>
+        <v>76435.7347193684</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683762</v>
+        <v>-311097.9403683761</v>
       </c>
       <c r="C6" t="n">
-        <v>279047.3216690245</v>
+        <v>62148.80772718304</v>
       </c>
       <c r="D6" t="n">
-        <v>-247916.0417058102</v>
+        <v>240969.2014302522</v>
       </c>
       <c r="E6" t="n">
-        <v>163998.2620943746</v>
+        <v>-112032.4836725352</v>
       </c>
       <c r="F6" t="n">
         <v>489410.72390173</v>
       </c>
       <c r="G6" t="n">
+        <v>489410.72390173</v>
+      </c>
+      <c r="H6" t="n">
         <v>489410.7239017297</v>
       </c>
-      <c r="H6" t="n">
-        <v>489410.7239017296</v>
-      </c>
       <c r="I6" t="n">
-        <v>489410.7239017297</v>
+        <v>489410.7239017299</v>
       </c>
       <c r="J6" t="n">
-        <v>440345.7791731855</v>
+        <v>440345.7791731853</v>
       </c>
       <c r="K6" t="n">
-        <v>489061.1750205754</v>
+        <v>426497.0862429093</v>
       </c>
       <c r="L6" t="n">
-        <v>326795.2765323105</v>
+        <v>461535.4702797556</v>
       </c>
       <c r="M6" t="n">
-        <v>404355.6959662179</v>
+        <v>332264.3433501317</v>
       </c>
       <c r="N6" t="n">
         <v>489410.7239017299</v>
@@ -26561,7 +26563,7 @@
         <v>489410.72390173</v>
       </c>
       <c r="P6" t="n">
-        <v>489410.7239017299</v>
+        <v>489410.72390173</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906373969</v>
+        <v>758.8996292950638</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>188.8837547751688</v>
+        <v>431.9757039594737</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26920,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>1.169149724492286</v>
+        <v>210.4296883821596</v>
       </c>
       <c r="D3" t="n">
-        <v>540.1376099559012</v>
+        <v>94.81103524262028</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>1.35816760884893</v>
+        <v>244.450116793154</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271239</v>
+        <v>110.1392527666895</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608848703</v>
+        <v>244.450116793154</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271241</v>
+        <v>110.1392527666897</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>1.35816760884893</v>
+        <v>244.450116793154</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271239</v>
+        <v>110.1392527666895</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>266.5922234612523</v>
+        <v>266.5922234612526</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871047</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27458,28 +27460,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,7 +27511,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681611</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>165.9789263905475</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>68.24545934075076</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441938</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976603</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>165.7992868455142</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>193.046615297093</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>217.9922909665426</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8456912132938</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380512</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425852</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750908</v>
+        <v>139.4987618372553</v>
       </c>
       <c r="T5" t="n">
-        <v>136.9341046938459</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1688845570787</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>242.6451302973077</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1612745908962</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196705</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>53.95977863238542</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074765</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505418</v>
+        <v>141.3629830843605</v>
       </c>
       <c r="T6" t="n">
-        <v>6.515706709315379</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8636029643752</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>28.13241001963789</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,25 +27782,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>74.2423485930574</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6438173562991</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>56.92094262157588</v>
+        <v>30.2419391930402</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355292</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882099</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319892</v>
+        <v>36.9111576058912</v>
       </c>
       <c r="R7" t="n">
-        <v>79.2722311322315</v>
+        <v>115.7603165166222</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279249</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2649664951167</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>267.3715347087705</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>206.2431374333857</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5.83418607916613</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27992,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>133.0417226397786</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>26.28822920081025</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.209604384471946</v>
+        <v>3.050852781085681</v>
       </c>
       <c r="H5" t="n">
-        <v>22.62911090247332</v>
+        <v>31.24454604429375</v>
       </c>
       <c r="I5" t="n">
-        <v>85.18577303235476</v>
+        <v>117.6180018428059</v>
       </c>
       <c r="J5" t="n">
-        <v>187.537410126576</v>
+        <v>258.9373162286711</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212734</v>
+        <v>388.079914452028</v>
       </c>
       <c r="L5" t="n">
-        <v>348.6921439025568</v>
+        <v>481.4474502511791</v>
       </c>
       <c r="M5" t="n">
-        <v>387.9871958749098</v>
+        <v>535.7030533968116</v>
       </c>
       <c r="N5" t="n">
-        <v>394.2652343322907</v>
+        <v>544.3712888610713</v>
       </c>
       <c r="O5" t="n">
-        <v>372.2934807341978</v>
+        <v>514.0343715191506</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925466</v>
+        <v>438.7164434860977</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.612415473645</v>
+        <v>329.4577782634666</v>
       </c>
       <c r="R5" t="n">
-        <v>138.799061416086</v>
+        <v>191.6431310098736</v>
       </c>
       <c r="S5" t="n">
-        <v>50.35135991115451</v>
+        <v>69.52130774899004</v>
       </c>
       <c r="T5" t="n">
-        <v>9.672543193025946</v>
+        <v>13.35510804920258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1767683507577556</v>
+        <v>0.2440682224868545</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182242572314401</v>
+        <v>1.632350146030892</v>
       </c>
       <c r="H6" t="n">
-        <v>11.41797431682593</v>
+        <v>15.7650658840352</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380723</v>
+        <v>56.20152915062502</v>
       </c>
       <c r="J6" t="n">
-        <v>111.695996711511</v>
+        <v>154.2212916475941</v>
       </c>
       <c r="K6" t="n">
-        <v>190.9062490565759</v>
+        <v>263.5887514316639</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509843</v>
+        <v>354.42760517219</v>
       </c>
       <c r="M6" t="n">
-        <v>299.5533043973812</v>
+        <v>413.6002979658097</v>
       </c>
       <c r="N6" t="n">
-        <v>307.4815890161038</v>
+        <v>424.5470671468678</v>
       </c>
       <c r="O6" t="n">
-        <v>281.2855825453478</v>
+        <v>388.3776244374465</v>
       </c>
       <c r="P6" t="n">
-        <v>225.7564785676508</v>
+        <v>311.7072835872499</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010453</v>
+        <v>208.3680642547504</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229238</v>
+        <v>101.3488976632163</v>
       </c>
       <c r="S6" t="n">
-        <v>21.95963725329598</v>
+        <v>30.3201880194773</v>
       </c>
       <c r="T6" t="n">
-        <v>4.76526721033743</v>
+        <v>6.5795165973789</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963166</v>
+        <v>0.1073914569757166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264533</v>
+        <v>1.368507528237</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989745</v>
+        <v>12.16727602377988</v>
       </c>
       <c r="I7" t="n">
-        <v>29.80665757095917</v>
+        <v>41.15475366734544</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782024</v>
+        <v>96.75348224635592</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269825</v>
+        <v>158.9956928260805</v>
       </c>
       <c r="L7" t="n">
-        <v>147.3573391521965</v>
+        <v>203.4597465162537</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124694</v>
+        <v>214.5197755399145</v>
       </c>
       <c r="N7" t="n">
-        <v>151.6733575852345</v>
+        <v>209.4189747528495</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742664</v>
+        <v>193.4323186275354</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8753846203266</v>
+        <v>165.5147650515004</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624692</v>
+        <v>114.5938440235546</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610761</v>
+        <v>61.53307486054729</v>
       </c>
       <c r="S7" t="n">
-        <v>17.27308420904737</v>
+        <v>23.84935392391208</v>
       </c>
       <c r="T7" t="n">
-        <v>4.234924140976663</v>
+        <v>5.847259438830817</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417024</v>
+        <v>0.07464586517656374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31849,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>362.8934092184361</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32564,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>339.3493584601592</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34211,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34460,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.491505599889678</v>
+        <v>77.89141170198479</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98011267629289</v>
+        <v>167.9900634070475</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325696</v>
+        <v>245.6810352811918</v>
       </c>
       <c r="M5" t="n">
-        <v>157.6409626476371</v>
+        <v>305.3568201695389</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707356998</v>
+        <v>314.9582252644804</v>
       </c>
       <c r="O5" t="n">
-        <v>142.195269312511</v>
+        <v>283.9361600974638</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727704</v>
+        <v>207.4834477308282</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919549</v>
+        <v>107.1520883890171</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092739</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221687</v>
+        <v>125.7473124573049</v>
       </c>
       <c r="L6" t="n">
-        <v>118.1426313711101</v>
+        <v>215.8732253923158</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753629</v>
+        <v>271.4662640437914</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327705</v>
+        <v>293.2053550635345</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009033</v>
+        <v>245.7813799930021</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332057</v>
+        <v>177.7328761729197</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93045321502376</v>
+        <v>68.38629016872886</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554515</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47266287095826</v>
+        <v>68.5750702350154</v>
       </c>
       <c r="M7" t="n">
-        <v>16.44186916486433</v>
+        <v>75.59399159230941</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000133</v>
+        <v>81.73343028761627</v>
       </c>
       <c r="O7" t="n">
-        <v>1.63835632242359</v>
+        <v>54.97578017569256</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235279</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>224.339029438562</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36212,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317426</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396438</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367755</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36437,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37238,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899148</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>200.7949786802851</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38108,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>257.9506595121318</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2257755.845468774</v>
+        <v>2253450.722471704</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9494965.654370343</v>
+        <v>9494965.654370341</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>165.7970289519848</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>88.09081815943041</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663196</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>112.457794371165</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.4372364365536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>50.91490209932782</v>
       </c>
       <c r="G5" t="n">
         <v>412.2518847340494</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760006</v>
+        <v>92.85788772760029</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425889</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>143.5928083587459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246127</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937498</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>12.12350979026946</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>223.5625731412817</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>72.19161405351177</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>127.7504046318343</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>193.3226980199847</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>114.5588353634913</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.6989975707012</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>20.27697994470972</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>48.45500408726883</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>82.86593624627328</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576166</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>219.8402248542621</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>44.30292280757602</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>217.6866318399304</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>18.16423677622371</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>180.1003471321689</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>100.3801551430683</v>
+        <v>34.00490843294668</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>135.4684761590169</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>215.3025979624043</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.594095449515125</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>102.7673426709131</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>266.0941464746417</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>98.72106119200248</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>101.9154861872836</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>22.6126310577748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.445727774094267</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.2420264262241</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="C2" t="n">
-        <v>672.2420264262241</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="D2" t="n">
-        <v>583.2614020227591</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062745</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897901</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985576</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262241</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262241</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262241</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262241</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262241</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262241</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262241</v>
+        <v>511.8624171433436</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.6925312598881</v>
+        <v>430.6039361998081</v>
       </c>
       <c r="C3" t="n">
-        <v>174.2395019787611</v>
+        <v>317.0102045117627</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330557</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330557</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330557</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264268</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264268</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="T3" t="n">
-        <v>487.5180226099422</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099422</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099422</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099422</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="X3" t="n">
-        <v>487.5180226099422</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="Y3" t="n">
-        <v>348.6925312598881</v>
+        <v>598.8192732198761</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>955.7558524817689</v>
+        <v>1350.949911270543</v>
       </c>
       <c r="C5" t="n">
-        <v>955.7558524817689</v>
+        <v>981.9873943301309</v>
       </c>
       <c r="D5" t="n">
-        <v>955.7558524817689</v>
+        <v>981.9873943301309</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817689</v>
+        <v>596.1991417318866</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921614</v>
+        <v>544.7699476921615</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062529</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062529</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675789</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017229</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166747</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.20494160308</v>
+        <v>521.2049416030773</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709231</v>
+        <v>823.5081935709196</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582758</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079248</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332768</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837895</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837895</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837895</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837895</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="U5" t="n">
-        <v>1474.264851509259</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="V5" t="n">
-        <v>1474.264851509259</v>
+        <v>1703.718566540657</v>
       </c>
       <c r="W5" t="n">
-        <v>1474.264851509259</v>
+        <v>1350.949911270543</v>
       </c>
       <c r="X5" t="n">
-        <v>1100.799093248179</v>
+        <v>1350.949911270543</v>
       </c>
       <c r="Y5" t="n">
-        <v>955.7558524817689</v>
+        <v>1350.949911270543</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>636.2307439652129</v>
+        <v>654.2649371506317</v>
       </c>
       <c r="C6" t="n">
-        <v>461.7777146840859</v>
+        <v>479.8119078695047</v>
       </c>
       <c r="D6" t="n">
-        <v>312.8433050228347</v>
+        <v>330.8774982082534</v>
       </c>
       <c r="E6" t="n">
-        <v>312.8433050228347</v>
+        <v>171.6400432027979</v>
       </c>
       <c r="F6" t="n">
-        <v>312.8433050228347</v>
+        <v>171.6400432027979</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814676</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675789</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787601</v>
+        <v>61.66788464787557</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806078</v>
+        <v>186.1577239806069</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171190005</v>
+        <v>399.8722171189988</v>
       </c>
       <c r="M6" t="n">
-        <v>668.623818522354</v>
+        <v>668.6238185223515</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352531</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228325</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639516</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906557</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906557</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906557</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906557</v>
+        <v>1250.338042626307</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906557</v>
+        <v>1238.092073141186</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906557</v>
+        <v>1238.092073141186</v>
       </c>
       <c r="W6" t="n">
-        <v>1220.057879955768</v>
+        <v>1238.092073141186</v>
       </c>
       <c r="X6" t="n">
-        <v>1012.206379750235</v>
+        <v>1030.240572935654</v>
       </c>
       <c r="Y6" t="n">
-        <v>804.446080985281</v>
+        <v>822.4802741706997</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858042</v>
+        <v>203.4942392446647</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858042</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8190495858042</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="E7" t="n">
-        <v>296.8982273095297</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="F7" t="n">
-        <v>150.0082798116194</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="G7" t="n">
-        <v>150.0082798116194</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0082798116194</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675789</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675789</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574759</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584129</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347992</v>
+        <v>206.9680378347979</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195393</v>
+        <v>287.8841338195376</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193475</v>
+        <v>342.3101561934728</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858042</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858042</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858042</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858042</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858042</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858042</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858042</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858042</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858042</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858042</v>
+        <v>203.4942392446647</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1065.055279897601</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="C8" t="n">
-        <v>1065.055279897601</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="D8" t="n">
-        <v>1065.055279897601</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>545.2988805405387</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>134.3129757509311</v>
       </c>
       <c r="G8" t="n">
         <v>122.3223344947425</v>
@@ -4801,55 +4801,55 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961722</v>
+        <v>1837.396939561087</v>
       </c>
       <c r="W8" t="n">
-        <v>1451.655119961722</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X8" t="n">
-        <v>1451.655119961722</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="Y8" t="n">
-        <v>1451.655119961722</v>
+        <v>1484.628284290972</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>391.3643484718303</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>216.9113191907033</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>216.9113191907033</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>216.9113191907033</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>216.9113191907033</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.552065309181</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1204.450475442445</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>969.2983672107021</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>969.2983672107021</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>761.4468670051692</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>553.6865682402154</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>292.2997961425817</v>
+        <v>110.6513313123436</v>
       </c>
       <c r="C10" t="n">
-        <v>292.2997961425817</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="D10" t="n">
-        <v>292.2997961425817</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="E10" t="n">
-        <v>292.2997961425817</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4098486446714</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="G10" t="n">
-        <v>145.4098486446714</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="H10" t="n">
-        <v>145.4098486446714</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>292.2997961425817</v>
+        <v>292.2997961425833</v>
       </c>
       <c r="Y10" t="n">
-        <v>292.2997961425817</v>
+        <v>292.2997961425833</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5126,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.400247324385</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.715759118498</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.298589081537</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.30903818352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5369,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6171,7 +6171,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2345.568987476151</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>768.5380889459582</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>768.5380889459582</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.140839595365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.204656667458</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2878.204656667458</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2730.291563085065</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.789304425605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.8410298377091</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>279.7087630373442</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1775.724818122104</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1521.040329916217</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1231.623159879256</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1003.633608981239</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>782.8410298377091</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>954.2476448606607</v>
       </c>
       <c r="C46" t="n">
-        <v>491.0125592675714</v>
+        <v>785.3114619327538</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>635.194822520418</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>487.2817289380249</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
   </sheetData>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>97.5789915191115</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>66.34424953498208</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>68.49784254931379</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9259388694757149</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>80.6461308585763</v>
+        <v>147.0213775686979</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>10.96548648755231</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>71.22040037418671</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>143.8269525734161</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>20.09032791460243</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.52575990662535</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>44.51847645928558</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>142.975320248837</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253156</v>
+        <v>270592.3620253134</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231902</v>
+        <v>115410.0540231932</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882046</v>
+        <v>62913.63765881993</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197425</v>
+        <v>27875.25362197489</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263454</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26432,7 +26432,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.7347193684</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683761</v>
+        <v>-311097.9403683763</v>
       </c>
       <c r="C6" t="n">
-        <v>62148.80772718304</v>
+        <v>62148.80772718487</v>
       </c>
       <c r="D6" t="n">
-        <v>240969.2014302522</v>
+        <v>240969.2014302492</v>
       </c>
       <c r="E6" t="n">
-        <v>-112032.4836725352</v>
+        <v>-112379.8629268914</v>
       </c>
       <c r="F6" t="n">
-        <v>489410.72390173</v>
+        <v>489063.3446473729</v>
       </c>
       <c r="G6" t="n">
-        <v>489410.72390173</v>
+        <v>489063.3446473729</v>
       </c>
       <c r="H6" t="n">
-        <v>489410.7239017297</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="I6" t="n">
-        <v>489410.7239017299</v>
+        <v>489063.3446473727</v>
       </c>
       <c r="J6" t="n">
-        <v>440345.7791731853</v>
+        <v>439998.3999188286</v>
       </c>
       <c r="K6" t="n">
-        <v>426497.0862429093</v>
+        <v>426149.7069885533</v>
       </c>
       <c r="L6" t="n">
-        <v>461535.4702797556</v>
+        <v>461188.0910253978</v>
       </c>
       <c r="M6" t="n">
-        <v>332264.3433501317</v>
+        <v>331916.964095775</v>
       </c>
       <c r="N6" t="n">
-        <v>489410.7239017299</v>
+        <v>489063.3446473725</v>
       </c>
       <c r="O6" t="n">
-        <v>489410.72390173</v>
+        <v>489063.3446473729</v>
       </c>
       <c r="P6" t="n">
-        <v>489410.72390173</v>
+        <v>489063.3446473727</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950638</v>
+        <v>758.8996292950624</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594737</v>
+        <v>431.975703959472</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821596</v>
+        <v>210.4296883821578</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262028</v>
+        <v>94.81103524262278</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.450116793154</v>
+        <v>244.450116793152</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666895</v>
+        <v>110.1392527666924</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793154</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666897</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793154</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666895</v>
+        <v>110.1392527666924</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>216.9368127114957</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>266.5922234612526</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753918</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637384</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60.25070461715079</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681611</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>68.24545934075076</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0308748441938</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,16 +27554,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>101.2177245773851</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>355.9611436423836</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425852</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372553</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>242.6451302973077</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937509</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074765</v>
+        <v>44.33060630074785</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843605</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>213.7104808337297</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>28.13241001963789</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>74.2423485930574</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.2419391930402</v>
+        <v>30.24193919304039</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.9111576058912</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166222</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>90.8342487202605</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>171.9501937510229</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>267.3715347087705</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.83418607916613</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5435940233588</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>118.791817011359</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28031,7 +28031,7 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>26.28822920081025</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085681</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429375</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428059</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286711</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452028</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511791</v>
+        <v>481.4474502511782</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968116</v>
+        <v>535.7030533968106</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610713</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191506</v>
+        <v>514.0343715191495</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860977</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634666</v>
+        <v>329.457778263466</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098736</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774899004</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920258</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868545</v>
+        <v>0.244068222486854</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030892</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.7650658840352</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062502</v>
+        <v>56.20152915062491</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475941</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316639</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>354.42760517219</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658097</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468678</v>
+        <v>424.5470671468671</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374465</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872499</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547504</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632163</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194773</v>
+        <v>30.32018801947724</v>
       </c>
       <c r="T6" t="n">
-        <v>6.5795165973789</v>
+        <v>6.579516597378888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757166</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528237</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377988</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734544</v>
+        <v>41.15475366734536</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635592</v>
+        <v>96.75348224635572</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260805</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162537</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399145</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528495</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275354</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515004</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235546</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054729</v>
+        <v>61.53307486054717</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391208</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830817</v>
+        <v>5.847259438830807</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656374</v>
+        <v>0.07464586517656359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198479</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070475</v>
+        <v>167.9900634070468</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811918</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695389</v>
+        <v>305.3568201695379</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644804</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974638</v>
+        <v>283.9361600974628</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308282</v>
+        <v>207.4834477308273</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890171</v>
+        <v>107.1520883890165</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092739</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573049</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923158</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437914</v>
+        <v>271.4662640437906</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635345</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930021</v>
+        <v>245.7813799930013</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729197</v>
+        <v>177.7328761729191</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872886</v>
+        <v>68.38629016872846</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554515</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.5750702350154</v>
+        <v>68.575070235015</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230941</v>
+        <v>75.59399159230901</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761627</v>
+        <v>81.73343028761587</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569256</v>
+        <v>54.97578017569217</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235279</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2253450.722471704</v>
+        <v>2255211.25277449</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.7970289519848</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>150.145088205776</v>
+      </c>
+      <c r="G2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>112.457794371165</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>156.667929580667</v>
       </c>
     </row>
     <row r="4">
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>50.91490209932782</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>231.9862204994542</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760029</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425889</v>
+        <v>23.94240680425904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.884743278214312</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074792</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>12.12350979026946</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>19.86486348319973</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>127.7504046318343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>193.3226980199847</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>44.29940690286139</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470972</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>48.45500408726883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>138.1343455414015</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576166</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>48.85497112745768</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>44.30292280757602</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.16423677622371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>186.0007748420832</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>34.00490843294668</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>43.3482415786093</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>215.3025979624043</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>211.6773350344783</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>102.7673426709131</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>20.9284728855285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186484</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>101.9154861872836</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.445727774094267</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344.3906707271973</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="C2" t="n">
-        <v>344.3906707271973</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="D2" t="n">
-        <v>344.3906707271973</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271973</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4357,25 +4357,25 @@
         <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433436</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433436</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433436</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433436</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433436</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433436</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.8624171433436</v>
+        <v>482.8222414097407</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>430.6039361998081</v>
+        <v>440.5688393000104</v>
       </c>
       <c r="C3" t="n">
-        <v>317.0102045117627</v>
+        <v>440.5688393000104</v>
       </c>
       <c r="D3" t="n">
-        <v>168.0757948505114</v>
+        <v>291.6344296387592</v>
       </c>
       <c r="E3" t="n">
-        <v>168.0757948505114</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="F3" t="n">
-        <v>168.0757948505114</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296054</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="H3" t="n">
         <v>30.53661367296054</v>
@@ -4412,19 +4412,19 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017064</v>
@@ -4454,7 +4454,7 @@
         <v>598.8192732198761</v>
       </c>
       <c r="Y3" t="n">
-        <v>598.8192732198761</v>
+        <v>440.5688393000104</v>
       </c>
     </row>
     <row r="4">
@@ -4476,10 +4476,10 @@
         <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
         <v>15.0020469733056</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1350.949911270543</v>
+        <v>1019.88702392697</v>
       </c>
       <c r="C5" t="n">
-        <v>981.9873943301309</v>
+        <v>1019.88702392697</v>
       </c>
       <c r="D5" t="n">
-        <v>981.9873943301309</v>
+        <v>661.6213253202197</v>
       </c>
       <c r="E5" t="n">
-        <v>596.1991417318866</v>
+        <v>275.8330727219755</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921615</v>
+        <v>268.887571972772</v>
       </c>
       <c r="G5" t="n">
-        <v>128.353902506253</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H5" t="n">
-        <v>128.353902506253</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017219</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746982</v>
+        <v>277.9807166746991</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030773</v>
+        <v>521.2049416030778</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709196</v>
+        <v>823.5081935709195</v>
       </c>
       <c r="N5" t="n">
         <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837888</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540657</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540657</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540657</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540657</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540657</v>
+        <v>1372.655679197084</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.949911270543</v>
+        <v>1019.88702392697</v>
       </c>
       <c r="X5" t="n">
-        <v>1350.949911270543</v>
+        <v>1019.88702392697</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.949911270543</v>
+        <v>1019.88702392697</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>654.2649371506317</v>
+        <v>345.2641534147367</v>
       </c>
       <c r="C6" t="n">
-        <v>479.8119078695047</v>
+        <v>345.2641534147367</v>
       </c>
       <c r="D6" t="n">
-        <v>330.8774982082534</v>
+        <v>345.2641534147367</v>
       </c>
       <c r="E6" t="n">
-        <v>171.6400432027979</v>
+        <v>186.0266984092812</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027979</v>
+        <v>39.49214043616612</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675776</v>
+        <v>39.49214043616612</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675776</v>
+        <v>39.49214043616612</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787557</v>
+        <v>61.66788464787543</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806069</v>
+        <v>186.1577239806065</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189988</v>
+        <v>399.8722171189983</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223515</v>
+        <v>668.6238185223507</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352487</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1401.100270703775</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1258.30937869937</v>
       </c>
       <c r="T6" t="n">
-        <v>1250.338042626307</v>
+        <v>1062.768760419125</v>
       </c>
       <c r="U6" t="n">
-        <v>1238.092073141186</v>
+        <v>834.6536183746811</v>
       </c>
       <c r="V6" t="n">
-        <v>1238.092073141186</v>
+        <v>599.5015101429383</v>
       </c>
       <c r="W6" t="n">
-        <v>1238.092073141186</v>
+        <v>345.2641534147367</v>
       </c>
       <c r="X6" t="n">
-        <v>1030.240572935654</v>
+        <v>345.2641534147367</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.4802741706997</v>
+        <v>345.2641534147367</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.4942392446647</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675776</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675776</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675776</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675776</v>
+        <v>222.9291020878906</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675776</v>
+        <v>54.62357498665645</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574714</v>
+        <v>64.240666625747</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584117</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347979</v>
+        <v>206.9680378347975</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195376</v>
+        <v>287.8841338195371</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934728</v>
+        <v>342.3101561934722</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040932</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040932</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040932</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="T7" t="n">
-        <v>332.5350520040932</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="U7" t="n">
-        <v>332.5350520040932</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="V7" t="n">
-        <v>332.5350520040932</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="W7" t="n">
-        <v>332.5350520040932</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="X7" t="n">
-        <v>332.5350520040932</v>
+        <v>369.8190495858009</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.4942392446647</v>
+        <v>369.8190495858009</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1484.628284290972</v>
+        <v>481.4155237884353</v>
       </c>
       <c r="C8" t="n">
-        <v>1289.352831745533</v>
+        <v>481.4155237884353</v>
       </c>
       <c r="D8" t="n">
-        <v>931.087133138783</v>
+        <v>481.4155237884353</v>
       </c>
       <c r="E8" t="n">
-        <v>545.2988805405387</v>
+        <v>481.4155237884353</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509311</v>
+        <v>474.4700230392319</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561087</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290972</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="X8" t="n">
-        <v>1484.628284290972</v>
+        <v>868.0153638525571</v>
       </c>
       <c r="Y8" t="n">
-        <v>1484.628284290972</v>
+        <v>868.0153638525571</v>
       </c>
     </row>
     <row r="9">
@@ -4859,61 +4859,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.528648459042</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>498.075619177915</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.22704733349</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
         <v>1745.745249409541</v>
@@ -4928,7 +4928,7 @@
         <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791101</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.6513313123436</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934479</v>
+        <v>351.3531641126922</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934479</v>
+        <v>201.2365247003565</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934479</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934479</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934479</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934479</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934479</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>292.2997961425833</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>292.2997961425833</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5126,16 +5126,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5363,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>996.5276398439756</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>827.5914569160688</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>677.474817503733</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>529.5617239213399</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2345.568987476151</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
         <v>555.8158034133954</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>446.9048623224643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>446.9048623224643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>279.7087630373442</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6891,19 +6891,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7168,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>114.9565346495158</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>954.2476448606607</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>785.3114619327538</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>635.194822520418</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>487.2817289380249</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.8961096909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.204770029246527e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>97.5789915191115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5.909506488879202</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31.1389319349247</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>39.70888054695391</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>147.0213775686979</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>71.22040037418671</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>5.728115292809974</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>37.52737017531081</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>32.89260457059572</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>44.51847645928558</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>142.975320248837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852897</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852893</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821175.3108852896</v>
+        <v>821175.3108852895</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.949767504</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675047</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253134</v>
+        <v>270592.3620253127</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231932</v>
+        <v>115410.0540231925</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,22 +26392,22 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881993</v>
+        <v>62913.63765881984</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197489</v>
+        <v>27875.25362197472</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,10 +26420,10 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888978</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26456,7 +26456,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186729</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26472,10 +26472,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936825</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-311097.9403683763</v>
       </c>
       <c r="C6" t="n">
-        <v>62148.80772718487</v>
+        <v>62148.80772718581</v>
       </c>
       <c r="D6" t="n">
-        <v>240969.2014302492</v>
+        <v>240969.2014302498</v>
       </c>
       <c r="E6" t="n">
-        <v>-112379.8629268914</v>
+        <v>-112067.2215979711</v>
       </c>
       <c r="F6" t="n">
-        <v>489063.3446473729</v>
+        <v>489375.9859762945</v>
       </c>
       <c r="G6" t="n">
-        <v>489063.3446473729</v>
+        <v>489375.9859762943</v>
       </c>
       <c r="H6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.9859762941</v>
       </c>
       <c r="I6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.9859762943</v>
       </c>
       <c r="J6" t="n">
-        <v>439998.3999188286</v>
+        <v>440311.0412477497</v>
       </c>
       <c r="K6" t="n">
-        <v>426149.7069885533</v>
+        <v>426462.348317474</v>
       </c>
       <c r="L6" t="n">
-        <v>461188.0910253978</v>
+        <v>461500.7323543191</v>
       </c>
       <c r="M6" t="n">
-        <v>331916.964095775</v>
+        <v>332229.6054246958</v>
       </c>
       <c r="N6" t="n">
-        <v>489063.3446473725</v>
+        <v>489375.9859762941</v>
       </c>
       <c r="O6" t="n">
-        <v>489063.3446473729</v>
+        <v>489375.9859762944</v>
       </c>
       <c r="P6" t="n">
-        <v>489063.3446473727</v>
+        <v>489375.9859762943</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950624</v>
+        <v>758.8996292950618</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.975703959472</v>
+        <v>431.9757039594716</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821578</v>
+        <v>210.4296883821572</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262278</v>
+        <v>94.81103524262232</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.450116793152</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666924</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793152</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793152</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666924</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216.9368127114957</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>256.7309575359354</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>60.25070461715079</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409149</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>49.01476619663737</v>
       </c>
     </row>
     <row r="4">
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2177245773851</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>355.9611436423836</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>180.2656642345952</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760039</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27675,7 +27675,7 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937509</v>
+        <v>38.43610757116082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074785</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>213.7104808337297</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>130.19503300046</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304039</v>
+        <v>30.24193919304047</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589152</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27830,7 +27830,7 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.8342487202605</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>171.9501937510229</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>367.5713279407654</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>172.4862383660574</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233588</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>118.791817011359</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.29961710516767</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.63709516081679e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085676</v>
+        <v>3.050852781085673</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429366</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286704</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.079914452027</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511782</v>
+        <v>481.4474502511778</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968106</v>
+        <v>535.7030533968101</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.3712888610698</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191495</v>
+        <v>514.0343715191491</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860965</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263466</v>
+        <v>329.4577782634657</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898986</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486854</v>
+        <v>0.2440682224868538</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403517</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062491</v>
+        <v>56.20152915062487</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316634</v>
+        <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.427605172189</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658086</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468671</v>
+        <v>424.5470671468667</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374454</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872491</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547498</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947724</v>
+        <v>30.32018801947721</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378888</v>
+        <v>6.579516597378882</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734536</v>
+        <v>41.15475366734533</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635572</v>
+        <v>96.75348224635565</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399141</v>
+        <v>214.5197755399139</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528491</v>
+        <v>209.4189747528489</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627535</v>
+        <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054717</v>
+        <v>61.53307486054712</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830807</v>
+        <v>5.847259438830802</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656359</v>
+        <v>0.07464586517656353</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198411</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070468</v>
+        <v>167.9900634070465</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811905</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695379</v>
+        <v>305.3568201695374</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644789</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974628</v>
+        <v>283.9361600974623</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308273</v>
+        <v>207.483447730827</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890165</v>
+        <v>107.1520883890163</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092697</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573044</v>
+        <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923149</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437906</v>
+        <v>271.4662640437903</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635334</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930013</v>
+        <v>245.781379993001</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729191</v>
+        <v>177.7328761729188</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872846</v>
+        <v>68.38629016872829</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554472</v>
       </c>
       <c r="L7" t="n">
-        <v>68.575070235015</v>
+        <v>68.57507023501486</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230901</v>
+        <v>75.59399159230884</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761587</v>
+        <v>81.7334302876157</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569217</v>
+        <v>54.97578017569202</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235234</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010493</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
